--- a/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01177823315646149</v>
+        <v>0.01133442061163715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01991406431295714</v>
+        <v>0.02067871726597455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004840330512446214</v>
+        <v>0.004688057982384098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09733957859017944</v>
+        <v>0.09986844151460231</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07271145509468192</v>
+        <v>0.07369051995801709</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03610904545735528</v>
+        <v>0.03679344995842833</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05871028723189122</v>
+        <v>0.0574625036946879</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05051813604817117</v>
+        <v>0.05212555405452116</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02393642332327947</v>
+        <v>0.02379561246818245</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03942587427662498</v>
+        <v>0.04009982707248545</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0574124968499017</v>
+        <v>0.05800099292237861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02563458601662277</v>
+        <v>0.02711677337945577</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1552653539844392</v>
+        <v>0.1558571044917978</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1301825652103273</v>
+        <v>0.1314867966835595</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08037254008882742</v>
+        <v>0.08083450913139469</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09090165488732929</v>
+        <v>0.08974843026592971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08344017439399043</v>
+        <v>0.08491635559176512</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04938986035522541</v>
+        <v>0.05047804665258969</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02407667216459835</v>
+        <v>0.02389273046633499</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02266031816148431</v>
+        <v>0.02166298334120388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01381823068480766</v>
+        <v>0.01457089539684488</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.153523245739603</v>
+        <v>0.1539308483432064</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1493448932861235</v>
+        <v>0.1530074867887867</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06382262371888149</v>
+        <v>0.06584314793820609</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08912036138977757</v>
+        <v>0.089093725960912</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08677296869032747</v>
+        <v>0.08667925928098585</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04347212475024901</v>
+        <v>0.04142498922419147</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05345747265637561</v>
+        <v>0.05447508157255895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05342451352884748</v>
+        <v>0.05275947207739891</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04038658118040955</v>
+        <v>0.04168599103215988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2198198775785064</v>
+        <v>0.2177728477549662</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2141180420760566</v>
+        <v>0.2172790013446562</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1097414906003458</v>
+        <v>0.1106282638129926</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1230393469677453</v>
+        <v>0.1221174640515371</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1199972820845158</v>
+        <v>0.1215087553868233</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0686466263952026</v>
+        <v>0.06811395949026071</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01050486636606399</v>
+        <v>0.01159521455210401</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01852308203577476</v>
+        <v>0.01783338136269715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001477921503888779</v>
+        <v>0.001558943820986531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05252797469057557</v>
+        <v>0.05085813670273581</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05837308291802341</v>
+        <v>0.05815404367615957</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02585704163166317</v>
+        <v>0.02437356434018104</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03609229091142035</v>
+        <v>0.03554528569666175</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04248662005139512</v>
+        <v>0.0422819692904165</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01499605461742116</v>
+        <v>0.01431757039893171</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0334337379449876</v>
+        <v>0.03182862864231797</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04454392653122417</v>
+        <v>0.04592060064914449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0155094134727464</v>
+        <v>0.01380229835622177</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09114193904703818</v>
+        <v>0.09017126768573817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09857321579518941</v>
+        <v>0.09899399860857622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05528440847892071</v>
+        <v>0.05453498614477537</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05947205820223666</v>
+        <v>0.05931883050234194</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06763304720415109</v>
+        <v>0.06675016999548443</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03071421901382558</v>
+        <v>0.03050881630207519</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0048780129097853</v>
+        <v>0.003545051166998236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01611269534436062</v>
+        <v>0.01689966841841228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001722257738603962</v>
+        <v>0.001710517442276846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03378909999790803</v>
+        <v>0.03217184491740505</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03376257376487954</v>
+        <v>0.03325564669645785</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01900660100248001</v>
+        <v>0.0178807675114163</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0209704571809594</v>
+        <v>0.02130202885362963</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02835269142156653</v>
+        <v>0.02808278424585933</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01187434615304875</v>
+        <v>0.01241249791747265</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02813594558744695</v>
+        <v>0.02872435107303874</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04554521069360779</v>
+        <v>0.04589032422674549</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01483102887454943</v>
+        <v>0.01482235145411989</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07120303667696398</v>
+        <v>0.07089330908501851</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07433383083219162</v>
+        <v>0.07258071837954432</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04936564766788466</v>
+        <v>0.04647868900590753</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04329635622057995</v>
+        <v>0.04402108818595069</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05345282518907827</v>
+        <v>0.05210427218645249</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0280000359320616</v>
+        <v>0.0277701113802133</v>
       </c>
     </row>
     <row r="16">
@@ -1111,29 +1111,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006427717091197696</v>
+        <v>0.006103053249671291</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002438703819377926</v>
+        <v>0.002427746016461126</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.01032147971632506</v>
+        <v>0.0101169801973147</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009303884990183113</v>
+        <v>0.009415541132578337</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.006918189298762832</v>
+        <v>0.006983916937900831</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01159973950589853</v>
+        <v>0.01069329248356937</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007312450374487387</v>
+        <v>0.007557008121305058</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003567911662171408</v>
+        <v>0.003538028298235272</v>
       </c>
     </row>
     <row r="18">
@@ -1144,29 +1144,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03529878905388244</v>
+        <v>0.0343034523149645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02336177117170829</v>
+        <v>0.02448077038944679</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.04376960232081783</v>
+        <v>0.04285782974569996</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03621116514094054</v>
+        <v>0.03558387498056612</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03030623740404539</v>
+        <v>0.03055955714653691</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03162836606665943</v>
+        <v>0.03165738877546904</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02386823984649285</v>
+        <v>0.02427509124713467</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01606891118691583</v>
+        <v>0.01661322067413843</v>
       </c>
     </row>
     <row r="19">
@@ -1222,25 +1222,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002878399541464355</v>
+        <v>0.002892748478805893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005661661816605234</v>
+        <v>0.005604657393749519</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01022680613680586</v>
+        <v>0.008436254853977681</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.004642536785605161</v>
+        <v>0.005580715512302587</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.007233997569006897</v>
+        <v>0.007488452127624539</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001458371578176171</v>
+        <v>0.002643860462965693</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01888508484639723</v>
+        <v>0.02051636470283351</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02397550848004034</v>
+        <v>0.02391415572265158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02852270657642297</v>
+        <v>0.03162290802636279</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03247398212885018</v>
+        <v>0.03436528407766309</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05390543636010003</v>
+        <v>0.05150279439410759</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01346737558281009</v>
+        <v>0.01341120424311694</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02026140014344082</v>
+        <v>0.02147404238467737</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03173926747049498</v>
+        <v>0.03203692060747862</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01436805525621324</v>
+        <v>0.01525579350089235</v>
       </c>
     </row>
     <row r="22">
@@ -1333,14 +1333,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01094976570835168</v>
+        <v>0.01114092414552614</v>
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008512106951728261</v>
+        <v>0.008532945787891259</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
     </row>
@@ -1353,21 +1353,21 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.02582060804534894</v>
+        <v>0.03268713520476614</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.02277170963189022</v>
+        <v>0.02175734470580885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0422405425431882</v>
+        <v>0.04262755779157646</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.01384774522021591</v>
+        <v>0.01405249080561149</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03079798987841535</v>
+        <v>0.03040351847336864</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
     </row>
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01548822130009274</v>
+        <v>0.01551058021790936</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01955178712843714</v>
+        <v>0.01992350316776292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006420311094387732</v>
+        <v>0.00665074093178796</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06875888371794873</v>
+        <v>0.0688852891732273</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06576090582617035</v>
+        <v>0.06621803532518303</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02957784767489845</v>
+        <v>0.02962323179703668</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04489091120795585</v>
+        <v>0.04426547535522569</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04516282114549398</v>
+        <v>0.04443287013788803</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01960697752991314</v>
+        <v>0.0189353624808998</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02509985661187526</v>
+        <v>0.02567120914193067</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03115675152898698</v>
+        <v>0.03095991099073343</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01328254132440556</v>
+        <v>0.01342003245338062</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08861432677000511</v>
+        <v>0.08793568542389285</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08321669863167985</v>
+        <v>0.08397565267401735</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04181434921630945</v>
+        <v>0.04141348628218721</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05519352739341961</v>
+        <v>0.0551809956463087</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05529510901595711</v>
+        <v>0.05547170867555551</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02694322867166246</v>
+        <v>0.02649845076267652</v>
       </c>
     </row>
     <row r="28">
@@ -1709,31 +1709,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5819</v>
+        <v>5600</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9005</v>
+        <v>9350</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2015</v>
+        <v>1952</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45505</v>
+        <v>46687</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>31122</v>
+        <v>31541</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14290</v>
+        <v>14561</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>56453</v>
+        <v>55253</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>44466</v>
+        <v>45881</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19437</v>
+        <v>19323</v>
       </c>
     </row>
     <row r="7">
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19479</v>
+        <v>19812</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25960</v>
+        <v>26226</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10671</v>
+        <v>11288</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>72585</v>
+        <v>72861</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>55721</v>
+        <v>56280</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31808</v>
+        <v>31991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>87407</v>
+        <v>86298</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>73444</v>
+        <v>74743</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40106</v>
+        <v>40990</v>
       </c>
     </row>
     <row r="8">
@@ -1853,31 +1853,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17708</v>
+        <v>17573</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15506</v>
+        <v>14823</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8130</v>
+        <v>8573</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>96028</v>
+        <v>96283</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>90994</v>
+        <v>93225</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>35967</v>
+        <v>37106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>121291</v>
+        <v>121255</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>112245</v>
+        <v>112124</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>50075</v>
+        <v>47717</v>
       </c>
     </row>
     <row r="11">
@@ -1888,31 +1888,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39317</v>
+        <v>40066</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36556</v>
+        <v>36101</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23762</v>
+        <v>24526</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>137496</v>
+        <v>136216</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>130459</v>
+        <v>132385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>61844</v>
+        <v>62344</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>167454</v>
+        <v>166200</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>155222</v>
+        <v>157178</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>79074</v>
+        <v>78460</v>
       </c>
     </row>
     <row r="12">
@@ -1997,31 +1997,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6709</v>
+        <v>7405</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12613</v>
+        <v>12143</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>985</v>
+        <v>1039</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36231</v>
+        <v>35079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>41259</v>
+        <v>41104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17018</v>
+        <v>16042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>47945</v>
+        <v>47219</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58960</v>
+        <v>58676</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19860</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="15">
@@ -2032,31 +2032,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21353</v>
+        <v>20328</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30331</v>
+        <v>31269</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10332</v>
+        <v>9195</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62865</v>
+        <v>62195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>69672</v>
+        <v>69970</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36387</v>
+        <v>35893</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79003</v>
+        <v>78800</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>93857</v>
+        <v>92632</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40676</v>
+        <v>40404</v>
       </c>
     </row>
     <row r="16">
@@ -2141,31 +2141,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2532</v>
+        <v>1840</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9833</v>
+        <v>10314</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17423</v>
+        <v>16589</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20728</v>
+        <v>20417</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12257</v>
+        <v>11531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>21700</v>
+        <v>22043</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34710</v>
+        <v>34380</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15316</v>
+        <v>16010</v>
       </c>
     </row>
     <row r="19">
@@ -2176,31 +2176,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14607</v>
+        <v>14912</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27795</v>
+        <v>28006</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9565</v>
+        <v>9560</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36715</v>
+        <v>36556</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45637</v>
+        <v>44561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31835</v>
+        <v>29974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44803</v>
+        <v>45553</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65438</v>
+        <v>63788</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36116</v>
+        <v>35819</v>
       </c>
     </row>
     <row r="20">
@@ -2285,29 +2285,29 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2486</v>
+        <v>2360</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>4170</v>
+        <v>4087</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4148</v>
+        <v>4198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3430</v>
+        <v>3463</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9172</v>
+        <v>8455</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6400</v>
+        <v>6614</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3464</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="23">
@@ -2318,29 +2318,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13650</v>
+        <v>13265</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10032</v>
+        <v>10513</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>17682</v>
+        <v>17314</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16144</v>
+        <v>15864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15027</v>
+        <v>15153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25008</v>
+        <v>25031</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20891</v>
+        <v>21247</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15602</v>
+        <v>16130</v>
       </c>
     </row>
     <row r="24">
@@ -2431,25 +2431,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1942</v>
+        <v>1922</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3611</v>
+        <v>2979</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2950</v>
+        <v>3547</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4788</v>
+        <v>4956</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1032</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="27">
@@ -2460,31 +2460,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5525</v>
+        <v>6003</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7403</v>
+        <v>7384</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9491</v>
+        <v>10522</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11136</v>
+        <v>11785</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19034</v>
+        <v>18186</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5047</v>
+        <v>5026</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12876</v>
+        <v>13647</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21007</v>
+        <v>21204</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10165</v>
+        <v>10793</v>
       </c>
     </row>
     <row r="28">
@@ -2577,14 +2577,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4246</v>
+        <v>4320</v>
       </c>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5410</v>
+        <v>5424</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
     </row>
@@ -2597,21 +2597,21 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>6399</v>
+        <v>8100</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>7604</v>
+        <v>7265</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16381</v>
+        <v>16531</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>7530</v>
+        <v>7642</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19575</v>
+        <v>19325</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
     </row>
@@ -2697,31 +2697,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>50748</v>
+        <v>50821</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>66743</v>
+        <v>68012</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21699</v>
+        <v>22478</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>232350</v>
+        <v>232777</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>233109</v>
+        <v>234730</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>104465</v>
+        <v>104625</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>298782</v>
+        <v>294620</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>314263</v>
+        <v>309184</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>135516</v>
+        <v>130874</v>
       </c>
     </row>
     <row r="35">
@@ -2732,31 +2732,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>82241</v>
+        <v>84113</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>106358</v>
+        <v>105686</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>44892</v>
+        <v>45357</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>299445</v>
+        <v>297152</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>294986</v>
+        <v>297677</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>147682</v>
+        <v>146266</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>367354</v>
+        <v>367270</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>384768</v>
+        <v>385997</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>186221</v>
+        <v>183147</v>
       </c>
     </row>
     <row r="36">
